--- a/MilestoneTwoRubric.xlsx
+++ b/MilestoneTwoRubric.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Peter Farber</t>
   </si>
@@ -50,27 +50,38 @@
     <t>Extract additional FBX data relating to Animations</t>
   </si>
   <si>
-    <t>use key press to change keyframe</t>
-  </si>
-  <si>
-    <t>create function to modify positions and rotations based
- on joint weights</t>
-  </si>
-  <si>
     <t>Display Joints</t>
   </si>
   <si>
-    <t>fix memory leaks</t>
-  </si>
-  <si>
     <t>use spheres to show joints</t>
+  </si>
+  <si>
+    <t>add in functionality to modify positions based on joint weights</t>
+  </si>
+  <si>
+    <t>window class to maintain the window</t>
+  </si>
+  <si>
+    <t>replace freeglut with glfw</t>
+  </si>
+  <si>
+    <t>create and load keyframes</t>
+  </si>
+  <si>
+    <t>use keypress to change keyframes</t>
+  </si>
+  <si>
+    <t>add skybox</t>
+  </si>
+  <si>
+    <t>fix memory leaks and no warnings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +109,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -148,9 +152,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -496,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,54 +553,82 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10">
-        <v>30</v>
+      <c r="B9" s="9">
+        <v>10</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B17" s="3">
         <v>100</v>
       </c>
     </row>
